--- a/outputs-HGR-r202-archive/o__Mycobacteriales_train.xlsx
+++ b/outputs-HGR-r202-archive/o__Mycobacteriales_train.xlsx
@@ -502,7 +502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,17 +540,17 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000582785_1.fasta</t>
+          <t>label_GCF_000582785_0.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01679698769375104</v>
+        <v>0.1604422366378968</v>
       </c>
       <c r="C2" t="n">
-        <v>0.983203012306249</v>
+        <v>0.8395577633621032</v>
       </c>
       <c r="D2" t="n">
-        <v>0.983203012306249</v>
+        <v>0.8395577633621032</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -561,61 +561,19 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000582785_2.fasta</t>
+          <t>label_GCF_000582785_3.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01670025535111619</v>
+        <v>0.006059243714932271</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9832997446488838</v>
+        <v>0.9939407562850677</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9832997446488838</v>
+        <v>0.9939407562850677</v>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000582785_0.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1604422366378968</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8395577633621032</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8395577633621032</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000582785_3.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.006059243714932271</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9939407562850677</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9939407562850677</v>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>f__Mycobacteriaceae</t>
         </is>
@@ -632,7 +590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E226"/>
+  <dimension ref="A1:E190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,17 +1426,17 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_15841_8_88_11.fasta</t>
+          <t>label_GCF_000411235_0.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01552433402337061</v>
+        <v>0.005394377254763771</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9844756659766294</v>
+        <v>0.9946056227452362</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9844756659766294</v>
+        <v>0.9946056227452362</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1489,17 +1447,17 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_15841_8_88_5.fasta</t>
+          <t>label_GCF_001941425_0.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01540141752217405</v>
+        <v>0.005319925542725201</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9845985824778259</v>
+        <v>0.9946800744572748</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9845985824778259</v>
+        <v>0.9946800744572748</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1510,17 +1468,17 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900078305_2.fasta</t>
+          <t>label_GCF_900078305_0.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01567054438768212</v>
+        <v>0.10468800834893</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9843294556123179</v>
+        <v>0.89531199165107</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9843294556123179</v>
+        <v>0.89531199165107</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1531,17 +1489,17 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900078305_6.fasta</t>
+          <t>label_GCF_900092335_0.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01589923469541132</v>
+        <v>0.01007470362223106</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9841007653045887</v>
+        <v>0.9899252963777689</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9841007653045887</v>
+        <v>0.9899252963777689</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1552,17 +1510,17 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_0.fasta</t>
+          <t>label_UMGS194_102.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01531608925040073</v>
+        <v>0.03136007183383482</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9846839107495993</v>
+        <v>0.9686399281661652</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9846839107495993</v>
+        <v>0.9686399281661652</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1573,17 +1531,17 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_10.fasta</t>
+          <t>label_UMGS194_11.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01553380966690077</v>
+        <v>0.006316781358653212</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9844661903330992</v>
+        <v>0.9936832186413468</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9844661903330992</v>
+        <v>0.9936832186413468</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1594,17 +1552,17 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_12.fasta</t>
+          <t>label_UMGS194_13.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01544554251546193</v>
+        <v>0.007593368167545855</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9845544574845381</v>
+        <v>0.9924066318324541</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9845544574845381</v>
+        <v>0.9924066318324541</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1615,17 +1573,17 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_17.fasta</t>
+          <t>label_UMGS194_20.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0154314259832441</v>
+        <v>0.006511311402915387</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9845685740167559</v>
+        <v>0.9934886885970846</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9845685740167559</v>
+        <v>0.9934886885970846</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1636,17 +1594,17 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_19.fasta</t>
+          <t>label_UMGS194_24.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01548956526715806</v>
+        <v>0.007143847101561351</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9845104347328419</v>
+        <v>0.9928561528984386</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9845104347328419</v>
+        <v>0.9928561528984386</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1657,17 +1615,17 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_33.fasta</t>
+          <t>label_UMGS194_25.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01559882576684024</v>
+        <v>0.007707210045080126</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9844011742331598</v>
+        <v>0.9922927899549199</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9844011742331598</v>
+        <v>0.9922927899549199</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1678,17 +1636,17 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_34.fasta</t>
+          <t>label_UMGS194_28.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01554343804683989</v>
+        <v>0.007938366575336865</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9844565619531601</v>
+        <v>0.9920616334246631</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9844565619531601</v>
+        <v>0.9920616334246631</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1699,17 +1657,17 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_4.fasta</t>
+          <t>label_UMGS194_3.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01532194362837558</v>
+        <v>0.006154899318448148</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9846780563716244</v>
+        <v>0.9938451006815519</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9846780563716244</v>
+        <v>0.9938451006815519</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1720,17 +1678,17 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_5.fasta</t>
+          <t>label_UMGS194_37.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01538606114097896</v>
+        <v>0.008347489610514236</v>
       </c>
       <c r="C52" t="n">
-        <v>0.984613938859021</v>
+        <v>0.9916525103894858</v>
       </c>
       <c r="D52" t="n">
-        <v>0.984613938859021</v>
+        <v>0.9916525103894858</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1741,17 +1699,17 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_55.fasta</t>
+          <t>label_UMGS194_38.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0157942397187989</v>
+        <v>0.007513336817880023</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9842057602812011</v>
+        <v>0.99248666318212</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9842057602812011</v>
+        <v>0.99248666318212</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1762,17 +1720,17 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_56.fasta</t>
+          <t>label_UMGS194_48.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01580231703895851</v>
+        <v>0.008534873194043113</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9841976829610415</v>
+        <v>0.9914651268059569</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9841976829610415</v>
+        <v>0.9914651268059569</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1783,17 +1741,17 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_61.fasta</t>
+          <t>label_UMGS194_54.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01583714543636516</v>
+        <v>0.009364529741331618</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9841628545636348</v>
+        <v>0.9906354702586684</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9841628545636348</v>
+        <v>0.9906354702586684</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1804,17 +1762,17 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_62.fasta</t>
+          <t>label_UMGS194_57.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01581260882390134</v>
+        <v>0.009746806157731269</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9841873911760987</v>
+        <v>0.9902531938422687</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9841873911760987</v>
+        <v>0.9902531938422687</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1825,17 +1783,17 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_65.fasta</t>
+          <t>label_UMGS194_59.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01582689299004147</v>
+        <v>0.009556806930311912</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9841731070099585</v>
+        <v>0.9904431930696881</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9841731070099585</v>
+        <v>0.9904431930696881</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1846,17 +1804,17 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_68.fasta</t>
+          <t>label_UMGS194_66.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01588404740603067</v>
+        <v>0.01098936383591931</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9841159525939693</v>
+        <v>0.9890106361640807</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9841159525939693</v>
+        <v>0.9890106361640807</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1867,17 +1825,17 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_7.fasta</t>
+          <t>label_UMGS194_67.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01546247028952186</v>
+        <v>0.01102019967423684</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9845375297104781</v>
+        <v>0.9889798003257632</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9845375297104781</v>
+        <v>0.9889798003257632</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1888,17 +1846,17 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_74.fasta</t>
+          <t>label_UMGS194_71.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0159541006640288</v>
+        <v>0.01077335197155893</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9840458993359712</v>
+        <v>0.9892266480284411</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9840458993359712</v>
+        <v>0.9892266480284411</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1909,17 +1867,17 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_78.fasta</t>
+          <t>label_UMGS194_73.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01596755263332494</v>
+        <v>0.0132800818220653</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9840324473666751</v>
+        <v>0.9867199181779347</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9840324473666751</v>
+        <v>0.9867199181779347</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1930,17 +1888,17 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_82.fasta</t>
+          <t>label_UMGS194_76.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01605636691897361</v>
+        <v>0.01283764050602476</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9839436330810264</v>
+        <v>0.9871623594939752</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9839436330810264</v>
+        <v>0.9871623594939752</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1951,17 +1909,17 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_84.fasta</t>
+          <t>label_UMGS194_77.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01595781847893696</v>
+        <v>0.01119152540420698</v>
       </c>
       <c r="C63" t="n">
-        <v>0.984042181521063</v>
+        <v>0.988808474595793</v>
       </c>
       <c r="D63" t="n">
-        <v>0.984042181521063</v>
+        <v>0.988808474595793</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1972,17 +1930,17 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_86.fasta</t>
+          <t>label_UMGS194_87.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01609125579402271</v>
+        <v>0.01808322734547585</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9839087442059773</v>
+        <v>0.9819167726545242</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9839087442059773</v>
+        <v>0.9819167726545242</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1993,17 +1951,17 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_96.fasta</t>
+          <t>label_UMGS194_89.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01619059211214491</v>
+        <v>0.01751521640322329</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9838094078878551</v>
+        <v>0.9824847835967767</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9838094078878551</v>
+        <v>0.9824847835967767</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2014,17 +1972,17 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_97.fasta</t>
+          <t>label_UMGS194_91.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0162401656460085</v>
+        <v>0.01656931480663615</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9837598343539915</v>
+        <v>0.9834306851933639</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9837598343539915</v>
+        <v>0.9834306851933639</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2035,17 +1993,17 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_98.fasta</t>
+          <t>label_UMGS194_95.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01624748581308677</v>
+        <v>0.01879303996699166</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9837525141869132</v>
+        <v>0.9812069600330083</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9837525141869132</v>
+        <v>0.9812069600330083</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2056,17 +2014,17 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_0.fasta</t>
+          <t>label_UMGS56_13.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01520613910549562</v>
+        <v>0.005728383442831886</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9847938608945044</v>
+        <v>0.9942716165571681</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9847938608945044</v>
+        <v>0.9942716165571681</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2077,17 +2035,17 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_10.fasta</t>
+          <t>label_UMGS56_16.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01539226848003539</v>
+        <v>0.006134458079824934</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9846077315199646</v>
+        <v>0.9938655419201751</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9846077315199646</v>
+        <v>0.9938655419201751</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2098,17 +2056,17 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_29.fasta</t>
+          <t>label_UMGS56_20.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01556963518532328</v>
+        <v>0.006025717285604637</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9844303648146767</v>
+        <v>0.9939742827143954</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9844303648146767</v>
+        <v>0.9939742827143954</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2119,17 +2077,17 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_3.fasta</t>
+          <t>label_UMGS56_25.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01529280635159702</v>
+        <v>0.006480831087865235</v>
       </c>
       <c r="C71" t="n">
-        <v>0.984707193648403</v>
+        <v>0.9935191689121348</v>
       </c>
       <c r="D71" t="n">
-        <v>0.984707193648403</v>
+        <v>0.9935191689121348</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2140,17 +2098,17 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_34.fasta</t>
+          <t>label_UMGS56_26.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01574339705668126</v>
+        <v>0.006708296191850871</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9842566029433187</v>
+        <v>0.9932917038081491</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9842566029433187</v>
+        <v>0.9932917038081491</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2161,17 +2119,17 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_37.fasta</t>
+          <t>label_UMGS56_30.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01588938248773475</v>
+        <v>0.007033818763675037</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9841106175122653</v>
+        <v>0.992966181236325</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9841106175122653</v>
+        <v>0.992966181236325</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2182,17 +2140,17 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_38.fasta</t>
+          <t>label_UMGS56_39.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01587097175275387</v>
+        <v>0.04086740054589377</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9841290282472461</v>
+        <v>0.9591325994541063</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9841290282472461</v>
+        <v>0.9591325994541063</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2203,17 +2161,17 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_40.fasta</t>
+          <t>label_UMGS56_4.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.0161309808881489</v>
+        <v>0.005283682095611364</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9838690191118511</v>
+        <v>0.9947163179043886</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9838690191118511</v>
+        <v>0.9947163179043886</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2224,17 +2182,17 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000411235_0.fasta</t>
+          <t>label_UMGS56_9.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.005394377254763771</v>
+        <v>0.005530530279295176</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9946056227452362</v>
+        <v>0.9944694697207048</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9946056227452362</v>
+        <v>0.9944694697207048</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2245,17 +2203,17 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001941425_0.fasta</t>
+          <t>label_15841_8_88_1.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.005319925542725201</v>
+        <v>0.0003547770782719173</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9946800744572748</v>
+        <v>0.9996452229217281</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9946800744572748</v>
+        <v>0.9996452229217281</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2266,17 +2224,17 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900078305_0.fasta</t>
+          <t>label_15841_8_88_12.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.10468800834893</v>
+        <v>0.000692878064025293</v>
       </c>
       <c r="C78" t="n">
-        <v>0.89531199165107</v>
+        <v>0.9993071219359747</v>
       </c>
       <c r="D78" t="n">
-        <v>0.89531199165107</v>
+        <v>0.9993071219359747</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2287,17 +2245,17 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900092335_0.fasta</t>
+          <t>label_15841_8_88_13.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01007470362223106</v>
+        <v>0.003517675954522126</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9899252963777689</v>
+        <v>0.9964823240454779</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9899252963777689</v>
+        <v>0.9964823240454779</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2308,17 +2266,17 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_102.fasta</t>
+          <t>label_15841_8_88_7.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.03136007183383482</v>
+        <v>0.0004004503803267667</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9686399281661652</v>
+        <v>0.9995995496196732</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9686399281661652</v>
+        <v>0.9995995496196732</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2329,17 +2287,17 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_11.fasta</t>
+          <t>label_15841_8_88_8.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.006316781358653212</v>
+        <v>0.0003836937193694157</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9936832186413468</v>
+        <v>0.9996163062806306</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9936832186413468</v>
+        <v>0.9996163062806306</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2350,17 +2308,17 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_13.fasta</t>
+          <t>label_UMGS194_100.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.007593368167545855</v>
+        <v>0.003223125170236152</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9924066318324541</v>
+        <v>0.9967768748297638</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9924066318324541</v>
+        <v>0.9967768748297638</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2371,17 +2329,17 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_20.fasta</t>
+          <t>label_UMGS194_104.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.006511311402915387</v>
+        <v>0.003074696272711286</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9934886885970846</v>
+        <v>0.9969253037272887</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9934886885970846</v>
+        <v>0.9969253037272887</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2392,17 +2350,17 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_24.fasta</t>
+          <t>label_UMGS194_14.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.007143847101561351</v>
+        <v>0.0005269191553120001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9928561528984386</v>
+        <v>0.999473080844688</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9928561528984386</v>
+        <v>0.999473080844688</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2413,17 +2371,17 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_25.fasta</t>
+          <t>label_UMGS194_15.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.007707210045080126</v>
+        <v>0.0004263996033051498</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9922927899549199</v>
+        <v>0.9995736003966949</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9922927899549199</v>
+        <v>0.9995736003966949</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2434,17 +2392,17 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_28.fasta</t>
+          <t>label_UMGS194_18.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.007938366575336865</v>
+        <v>0.0005518926867275065</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9920616334246631</v>
+        <v>0.9994481073132725</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9920616334246631</v>
+        <v>0.9994481073132725</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2455,17 +2413,17 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_3.fasta</t>
+          <t>label_UMGS194_21.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.006154899318448148</v>
+        <v>0.0004371062192833897</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9938451006815519</v>
+        <v>0.9995628937807166</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9938451006815519</v>
+        <v>0.9995628937807166</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2476,17 +2434,17 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_37.fasta</t>
+          <t>label_UMGS194_23.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.008347489610514236</v>
+        <v>0.0003789596741188284</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9916525103894858</v>
+        <v>0.9996210403258812</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9916525103894858</v>
+        <v>0.9996210403258812</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2497,17 +2455,17 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_38.fasta</t>
+          <t>label_UMGS194_27.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.007513336817880023</v>
+        <v>0.0005244295554409639</v>
       </c>
       <c r="C89" t="n">
-        <v>0.99248666318212</v>
+        <v>0.999475570444559</v>
       </c>
       <c r="D89" t="n">
-        <v>0.99248666318212</v>
+        <v>0.999475570444559</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2518,17 +2476,17 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_48.fasta</t>
+          <t>label_UMGS194_31.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.008534873194043113</v>
+        <v>0.000441692941257843</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9914651268059569</v>
+        <v>0.9995583070587422</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9914651268059569</v>
+        <v>0.9995583070587422</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2539,17 +2497,17 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_54.fasta</t>
+          <t>label_UMGS194_32.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.009364529741331618</v>
+        <v>0.0004861331222379972</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9906354702586684</v>
+        <v>0.999513866877762</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9906354702586684</v>
+        <v>0.999513866877762</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2560,17 +2518,17 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_57.fasta</t>
+          <t>label_UMGS194_35.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.009746806157731269</v>
+        <v>0.0005721539316332347</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9902531938422687</v>
+        <v>0.9994278460683668</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9902531938422687</v>
+        <v>0.9994278460683668</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2581,17 +2539,17 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_59.fasta</t>
+          <t>label_UMGS194_36.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.009556806930311912</v>
+        <v>0.0005178800887937207</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9904431930696881</v>
+        <v>0.9994821199112063</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9904431930696881</v>
+        <v>0.9994821199112063</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2602,17 +2560,17 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_66.fasta</t>
+          <t>label_UMGS194_41.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.01098936383591931</v>
+        <v>0.0005090561450508124</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9890106361640807</v>
+        <v>0.9994909438549492</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9890106361640807</v>
+        <v>0.9994909438549492</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2623,17 +2581,17 @@
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_67.fasta</t>
+          <t>label_UMGS194_45.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.01102019967423684</v>
+        <v>0.0007270547922281212</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9889798003257632</v>
+        <v>0.9992729452077719</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9889798003257632</v>
+        <v>0.9992729452077719</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2644,17 +2602,17 @@
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_71.fasta</t>
+          <t>label_UMGS194_58.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.01077335197155893</v>
+        <v>0.000654924994285544</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9892266480284411</v>
+        <v>0.9993450750057145</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9892266480284411</v>
+        <v>0.9993450750057145</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2665,17 +2623,17 @@
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_73.fasta</t>
+          <t>label_UMGS194_60.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.0132800818220653</v>
+        <v>0.001194248720856605</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9867199181779347</v>
+        <v>0.9988057512791434</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9867199181779347</v>
+        <v>0.9988057512791434</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2686,17 +2644,17 @@
     <row r="98">
       <c r="A98" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_76.fasta</t>
+          <t>label_UMGS194_64.fasta</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.01283764050602476</v>
+        <v>0.0006387169631736356</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9871623594939752</v>
+        <v>0.9993612830368264</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9871623594939752</v>
+        <v>0.9993612830368264</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2707,17 +2665,17 @@
     <row r="99">
       <c r="A99" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_77.fasta</t>
+          <t>label_UMGS194_70.fasta</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.01119152540420698</v>
+        <v>0.0009951447862244223</v>
       </c>
       <c r="C99" t="n">
-        <v>0.988808474595793</v>
+        <v>0.9990048552137756</v>
       </c>
       <c r="D99" t="n">
-        <v>0.988808474595793</v>
+        <v>0.9990048552137756</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2728,17 +2686,17 @@
     <row r="100">
       <c r="A100" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_87.fasta</t>
+          <t>label_UMGS194_75.fasta</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.01808322734547585</v>
+        <v>0.001342888562542721</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9819167726545242</v>
+        <v>0.9986571114374573</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9819167726545242</v>
+        <v>0.9986571114374573</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2749,17 +2707,17 @@
     <row r="101">
       <c r="A101" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_89.fasta</t>
+          <t>label_UMGS194_80.fasta</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.01751521640322329</v>
+        <v>0.001050068894373646</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9824847835967767</v>
+        <v>0.9989499311056264</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9824847835967767</v>
+        <v>0.9989499311056264</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2770,17 +2728,17 @@
     <row r="102">
       <c r="A102" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_91.fasta</t>
+          <t>label_UMGS194_83.fasta</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.01656931480663615</v>
+        <v>0.001179233168256522</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9834306851933639</v>
+        <v>0.9988207668317435</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9834306851933639</v>
+        <v>0.9988207668317435</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2791,17 +2749,17 @@
     <row r="103">
       <c r="A103" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_95.fasta</t>
+          <t>label_UMGS194_88.fasta</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.01879303996699166</v>
+        <v>0.001308939299726863</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9812069600330083</v>
+        <v>0.9986910607002731</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9812069600330083</v>
+        <v>0.9986910607002731</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2812,17 +2770,17 @@
     <row r="104">
       <c r="A104" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_13.fasta</t>
+          <t>label_UMGS194_93.fasta</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.005728383442831886</v>
+        <v>0.001998260016152664</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9942716165571681</v>
+        <v>0.9980017399838473</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9942716165571681</v>
+        <v>0.9980017399838473</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2833,17 +2791,17 @@
     <row r="105">
       <c r="A105" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_16.fasta</t>
+          <t>label_UMGS56_1.fasta</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.006134458079824934</v>
+        <v>0.0003670489196846427</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9938655419201751</v>
+        <v>0.9996329510803154</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9938655419201751</v>
+        <v>0.9996329510803154</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2854,17 +2812,17 @@
     <row r="106">
       <c r="A106" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_20.fasta</t>
+          <t>label_UMGS56_19.fasta</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.006025717285604637</v>
+        <v>0.0007674997510681569</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9939742827143954</v>
+        <v>0.9992325002489318</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9939742827143954</v>
+        <v>0.9992325002489318</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2875,17 +2833,17 @@
     <row r="107">
       <c r="A107" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_25.fasta</t>
+          <t>label_UMGS56_23.fasta</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.006480831087865235</v>
+        <v>0.0003760645676423868</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9935191689121348</v>
+        <v>0.9996239354323576</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9935191689121348</v>
+        <v>0.9996239354323576</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2896,17 +2854,17 @@
     <row r="108">
       <c r="A108" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_26.fasta</t>
+          <t>label_UMGS56_27.fasta</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.006708296191850871</v>
+        <v>0.0004004202669166678</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9932917038081491</v>
+        <v>0.9995995797330833</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9932917038081491</v>
+        <v>0.9995995797330833</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2917,17 +2875,17 @@
     <row r="109">
       <c r="A109" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_30.fasta</t>
+          <t>label_UMGS56_28.fasta</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.007033818763675037</v>
+        <v>0.0007256249806315562</v>
       </c>
       <c r="C109" t="n">
-        <v>0.992966181236325</v>
+        <v>0.9992743750193684</v>
       </c>
       <c r="D109" t="n">
-        <v>0.992966181236325</v>
+        <v>0.9992743750193684</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2938,17 +2896,17 @@
     <row r="110">
       <c r="A110" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_39.fasta</t>
+          <t>label_UMGS56_36.fasta</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.04086740054589377</v>
+        <v>0.0007458041729405674</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9591325994541063</v>
+        <v>0.9992541958270594</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9591325994541063</v>
+        <v>0.9992541958270594</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2959,17 +2917,17 @@
     <row r="111">
       <c r="A111" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_4.fasta</t>
+          <t>label_UMGS56_5.fasta</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.005283682095611364</v>
+        <v>0.0003715087173573606</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9947163179043886</v>
+        <v>0.9996284912826426</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9947163179043886</v>
+        <v>0.9996284912826426</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2980,17 +2938,17 @@
     <row r="112">
       <c r="A112" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_9.fasta</t>
+          <t>label_UMGS56_6.fasta</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.005530530279295176</v>
+        <v>0.0005759464069037268</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9944694697207048</v>
+        <v>0.9994240535930963</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9944694697207048</v>
+        <v>0.9994240535930963</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3001,17 +2959,17 @@
     <row r="113">
       <c r="A113" s="11" t="inlineStr">
         <is>
-          <t>label_15841_8_88_1.fasta</t>
+          <t>label_UMGS56_8.fasta</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.0003547770782719173</v>
+        <v>0.0005274420768228705</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9996452229217281</v>
+        <v>0.9994725579231771</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9996452229217281</v>
+        <v>0.9994725579231771</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3022,17 +2980,17 @@
     <row r="114">
       <c r="A114" s="11" t="inlineStr">
         <is>
-          <t>label_15841_8_88_12.fasta</t>
+          <t>label_15841_8_88_3.fasta</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.000692878064025293</v>
+        <v>0.007693481470100183</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9993071219359747</v>
+        <v>0.9923065185298998</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9993071219359747</v>
+        <v>0.9923065185298998</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3043,17 +3001,17 @@
     <row r="115">
       <c r="A115" s="11" t="inlineStr">
         <is>
-          <t>label_15841_8_88_13.fasta</t>
+          <t>label_15841_8_88_4.fasta</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.003517675954522126</v>
+        <v>0.008315089704843404</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9964823240454779</v>
+        <v>0.9916849102951566</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9964823240454779</v>
+        <v>0.9916849102951566</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3064,17 +3022,17 @@
     <row r="116">
       <c r="A116" s="11" t="inlineStr">
         <is>
-          <t>label_15841_8_88_7.fasta</t>
+          <t>label_GCF_000403725_1.fasta</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.0004004503803267667</v>
+        <v>0.014733239638963</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9995995496196732</v>
+        <v>0.985266760361037</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9995995496196732</v>
+        <v>0.985266760361037</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3085,17 +3043,17 @@
     <row r="117">
       <c r="A117" s="11" t="inlineStr">
         <is>
-          <t>label_15841_8_88_8.fasta</t>
+          <t>label_GCF_000403725_2.fasta</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.0003836937193694157</v>
+        <v>0.01861582827593677</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9996163062806306</v>
+        <v>0.9813841717240632</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9996163062806306</v>
+        <v>0.9813841717240632</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -3106,17 +3064,17 @@
     <row r="118">
       <c r="A118" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_100.fasta</t>
+          <t>label_GCF_900049755_0.fasta</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.003223125170236152</v>
+        <v>0.05645525304918363</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9967768748297638</v>
+        <v>0.9435447469508164</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9967768748297638</v>
+        <v>0.9435447469508164</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3127,17 +3085,17 @@
     <row r="119">
       <c r="A119" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_104.fasta</t>
+          <t>label_GCF_900049755_1.fasta</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.003074696272711286</v>
+        <v>0.06025587920188147</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9969253037272887</v>
+        <v>0.9397441207981185</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9969253037272887</v>
+        <v>0.9397441207981185</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3148,17 +3106,17 @@
     <row r="120">
       <c r="A120" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_14.fasta</t>
+          <t>label_GCF_900049755_2.fasta</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.0005269191553120001</v>
+        <v>0.08207332739301398</v>
       </c>
       <c r="C120" t="n">
-        <v>0.999473080844688</v>
+        <v>0.917926672606986</v>
       </c>
       <c r="D120" t="n">
-        <v>0.999473080844688</v>
+        <v>0.917926672606986</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3169,17 +3127,17 @@
     <row r="121">
       <c r="A121" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_15.fasta</t>
+          <t>label_GCF_900078305_1.fasta</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.0004263996033051498</v>
+        <v>0.04026110931228921</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9995736003966949</v>
+        <v>0.9597388906877108</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9995736003966949</v>
+        <v>0.9597388906877108</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3190,17 +3148,17 @@
     <row r="122">
       <c r="A122" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_18.fasta</t>
+          <t>label_GCF_900078305_4.fasta</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.0005518926867275065</v>
+        <v>0.03461949203592063</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9994481073132725</v>
+        <v>0.9653805079640794</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9994481073132725</v>
+        <v>0.9653805079640794</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3211,17 +3169,17 @@
     <row r="123">
       <c r="A123" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_21.fasta</t>
+          <t>label_GCF_900078305_5.fasta</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.0004371062192833897</v>
+        <v>0.02443643308276955</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9995628937807166</v>
+        <v>0.9755635669172305</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9995628937807166</v>
+        <v>0.9755635669172305</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3232,17 +3190,17 @@
     <row r="124">
       <c r="A124" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_23.fasta</t>
+          <t>label_GCF_900078305_8.fasta</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.0003789596741188284</v>
+        <v>0.03062697733639974</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9996210403258812</v>
+        <v>0.9693730226636003</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9996210403258812</v>
+        <v>0.9693730226636003</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3253,17 +3211,17 @@
     <row r="125">
       <c r="A125" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_27.fasta</t>
+          <t>label_GCF_900092335_1.fasta</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.0005244295554409639</v>
+        <v>0.01205985086422279</v>
       </c>
       <c r="C125" t="n">
-        <v>0.999475570444559</v>
+        <v>0.9879401491357772</v>
       </c>
       <c r="D125" t="n">
-        <v>0.999475570444559</v>
+        <v>0.9879401491357772</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3274,17 +3232,17 @@
     <row r="126">
       <c r="A126" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_31.fasta</t>
+          <t>label_UMGS194_103.fasta</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.000441692941257843</v>
+        <v>0.02697721080514726</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9995583070587422</v>
+        <v>0.9730227891948527</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9995583070587422</v>
+        <v>0.9730227891948527</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3295,17 +3253,17 @@
     <row r="127">
       <c r="A127" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_32.fasta</t>
+          <t>label_UMGS194_2.fasta</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.0004861331222379972</v>
+        <v>0.007410090970188076</v>
       </c>
       <c r="C127" t="n">
-        <v>0.999513866877762</v>
+        <v>0.9925899090298119</v>
       </c>
       <c r="D127" t="n">
-        <v>0.999513866877762</v>
+        <v>0.9925899090298119</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3316,17 +3274,17 @@
     <row r="128">
       <c r="A128" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_35.fasta</t>
+          <t>label_UMGS194_22.fasta</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.0005721539316332347</v>
+        <v>0.008133947378437201</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9994278460683668</v>
+        <v>0.9918660526215628</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9994278460683668</v>
+        <v>0.9918660526215628</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3337,17 +3295,17 @@
     <row r="129">
       <c r="A129" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_36.fasta</t>
+          <t>label_UMGS194_29.fasta</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.0005178800887937207</v>
+        <v>0.008618278151288239</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9994821199112063</v>
+        <v>0.9913817218487118</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9994821199112063</v>
+        <v>0.9913817218487118</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3358,17 +3316,17 @@
     <row r="130">
       <c r="A130" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_41.fasta</t>
+          <t>label_UMGS194_30.fasta</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.0005090561450508124</v>
+        <v>0.009705161942564211</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9994909438549492</v>
+        <v>0.9902948380574358</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9994909438549492</v>
+        <v>0.9902948380574358</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3379,17 +3337,17 @@
     <row r="131">
       <c r="A131" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_45.fasta</t>
+          <t>label_UMGS194_40.fasta</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.0007270547922281212</v>
+        <v>0.009309913093050072</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9992729452077719</v>
+        <v>0.9906900869069499</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9992729452077719</v>
+        <v>0.9906900869069499</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3400,17 +3358,17 @@
     <row r="132">
       <c r="A132" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_58.fasta</t>
+          <t>label_UMGS194_42.fasta</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.000654924994285544</v>
+        <v>0.01064266513205914</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9993450750057145</v>
+        <v>0.9893573348679409</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9993450750057145</v>
+        <v>0.9893573348679409</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3421,17 +3379,17 @@
     <row r="133">
       <c r="A133" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_60.fasta</t>
+          <t>label_UMGS194_43.fasta</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.001194248720856605</v>
+        <v>0.01043022691987239</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9988057512791434</v>
+        <v>0.9895697730801276</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9988057512791434</v>
+        <v>0.9895697730801276</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3442,17 +3400,17 @@
     <row r="134">
       <c r="A134" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_64.fasta</t>
+          <t>label_UMGS194_46.fasta</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.0006387169631736356</v>
+        <v>0.01040386335687871</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9993612830368264</v>
+        <v>0.9895961366431213</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9993612830368264</v>
+        <v>0.9895961366431213</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3463,17 +3421,17 @@
     <row r="135">
       <c r="A135" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_70.fasta</t>
+          <t>label_UMGS194_50.fasta</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.0009951447862244223</v>
+        <v>0.010536768870824</v>
       </c>
       <c r="C135" t="n">
-        <v>0.9990048552137756</v>
+        <v>0.989463231129176</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9990048552137756</v>
+        <v>0.989463231129176</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3484,17 +3442,17 @@
     <row r="136">
       <c r="A136" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_75.fasta</t>
+          <t>label_UMGS194_51.fasta</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.001342888562542721</v>
+        <v>0.01140670091623941</v>
       </c>
       <c r="C136" t="n">
-        <v>0.9986571114374573</v>
+        <v>0.9885932990837606</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9986571114374573</v>
+        <v>0.9885932990837606</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3505,17 +3463,17 @@
     <row r="137">
       <c r="A137" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_80.fasta</t>
+          <t>label_UMGS194_53.fasta</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.001050068894373646</v>
+        <v>0.01081483011866924</v>
       </c>
       <c r="C137" t="n">
-        <v>0.9989499311056264</v>
+        <v>0.9891851698813308</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9989499311056264</v>
+        <v>0.9891851698813308</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3526,17 +3484,17 @@
     <row r="138">
       <c r="A138" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_83.fasta</t>
+          <t>label_UMGS194_6.fasta</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.001179233168256522</v>
+        <v>0.006831104527828979</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9988207668317435</v>
+        <v>0.993168895472171</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9988207668317435</v>
+        <v>0.993168895472171</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3547,17 +3505,17 @@
     <row r="139">
       <c r="A139" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_88.fasta</t>
+          <t>label_UMGS194_69.fasta</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.001308939299726863</v>
+        <v>0.0169263874520672</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9986910607002731</v>
+        <v>0.9830736125479328</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9986910607002731</v>
+        <v>0.9830736125479328</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3568,17 +3526,17 @@
     <row r="140">
       <c r="A140" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_93.fasta</t>
+          <t>label_UMGS194_79.fasta</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.001998260016152664</v>
+        <v>0.01437462881558971</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9980017399838473</v>
+        <v>0.9856253711844103</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9980017399838473</v>
+        <v>0.9856253711844103</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3589,17 +3547,17 @@
     <row r="141">
       <c r="A141" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_1.fasta</t>
+          <t>label_UMGS194_85.fasta</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.0003670489196846427</v>
+        <v>0.01810905219057957</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9996329510803154</v>
+        <v>0.9818909478094204</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9996329510803154</v>
+        <v>0.9818909478094204</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3610,17 +3568,17 @@
     <row r="142">
       <c r="A142" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_19.fasta</t>
+          <t>label_UMGS194_90.fasta</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.0007674997510681569</v>
+        <v>0.01840393239959337</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9992325002489318</v>
+        <v>0.9815960676004066</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9992325002489318</v>
+        <v>0.9815960676004066</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3631,17 +3589,17 @@
     <row r="143">
       <c r="A143" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_23.fasta</t>
+          <t>label_UMGS194_94.fasta</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.0003760645676423868</v>
+        <v>0.03139640300365099</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9996239354323576</v>
+        <v>0.968603596996349</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9996239354323576</v>
+        <v>0.968603596996349</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3652,17 +3610,17 @@
     <row r="144">
       <c r="A144" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_27.fasta</t>
+          <t>label_UMGS194_99.fasta</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.0004004202669166678</v>
+        <v>0.02931219433422072</v>
       </c>
       <c r="C144" t="n">
-        <v>0.9995995797330833</v>
+        <v>0.9706878056657793</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9995995797330833</v>
+        <v>0.9706878056657793</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3673,17 +3631,17 @@
     <row r="145">
       <c r="A145" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_28.fasta</t>
+          <t>label_UMGS56_14.fasta</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.0007256249806315562</v>
+        <v>0.006642603981166784</v>
       </c>
       <c r="C145" t="n">
-        <v>0.9992743750193684</v>
+        <v>0.9933573960188332</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9992743750193684</v>
+        <v>0.9933573960188332</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3694,17 +3652,17 @@
     <row r="146">
       <c r="A146" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_36.fasta</t>
+          <t>label_UMGS56_17.fasta</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.0007458041729405674</v>
+        <v>0.006887356560971059</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9992541958270594</v>
+        <v>0.9931126434390289</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9992541958270594</v>
+        <v>0.9931126434390289</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3715,17 +3673,17 @@
     <row r="147">
       <c r="A147" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_5.fasta</t>
+          <t>label_UMGS56_18.fasta</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.0003715087173573606</v>
+        <v>0.0069504083897175</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9996284912826426</v>
+        <v>0.9930495916102825</v>
       </c>
       <c r="D147" t="n">
-        <v>0.9996284912826426</v>
+        <v>0.9930495916102825</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3736,17 +3694,17 @@
     <row r="148">
       <c r="A148" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_6.fasta</t>
+          <t>label_UMGS56_2.fasta</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.0005759464069037268</v>
+        <v>0.005877853297076686</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9994240535930963</v>
+        <v>0.9941221467029233</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9994240535930963</v>
+        <v>0.9941221467029233</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3757,17 +3715,17 @@
     <row r="149">
       <c r="A149" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_8.fasta</t>
+          <t>label_UMGS56_21.fasta</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.0005274420768228705</v>
+        <v>0.007523091799158999</v>
       </c>
       <c r="C149" t="n">
-        <v>0.9994725579231771</v>
+        <v>0.992476908200841</v>
       </c>
       <c r="D149" t="n">
-        <v>0.9994725579231771</v>
+        <v>0.992476908200841</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3778,17 +3736,17 @@
     <row r="150">
       <c r="A150" s="11" t="inlineStr">
         <is>
-          <t>label_15841_8_88_3.fasta</t>
+          <t>label_UMGS56_22.fasta</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.007693481470100183</v>
+        <v>0.007253898400719327</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9923065185298998</v>
+        <v>0.9927461015992807</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9923065185298998</v>
+        <v>0.9927461015992807</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3799,17 +3757,17 @@
     <row r="151">
       <c r="A151" s="11" t="inlineStr">
         <is>
-          <t>label_15841_8_88_4.fasta</t>
+          <t>label_UMGS56_33.fasta</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.008315089704843404</v>
+        <v>0.01362774946271472</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9916849102951566</v>
+        <v>0.9863722505372853</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9916849102951566</v>
+        <v>0.9863722505372853</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3820,17 +3778,17 @@
     <row r="152">
       <c r="A152" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000403725_1.fasta</t>
+          <t>label_UMGS56_41.fasta</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.014733239638963</v>
+        <v>0.0202118392637386</v>
       </c>
       <c r="C152" t="n">
-        <v>0.985266760361037</v>
+        <v>0.9797881607362614</v>
       </c>
       <c r="D152" t="n">
-        <v>0.985266760361037</v>
+        <v>0.9797881607362614</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3841,17 +3799,17 @@
     <row r="153">
       <c r="A153" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000403725_2.fasta</t>
+          <t>label_15841_8_88_0.fasta</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.01861582827593677</v>
+        <v>0.0003795632646000913</v>
       </c>
       <c r="C153" t="n">
-        <v>0.9813841717240632</v>
+        <v>0.9996204367353999</v>
       </c>
       <c r="D153" t="n">
-        <v>0.9813841717240632</v>
+        <v>0.9996204367353999</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3862,17 +3820,17 @@
     <row r="154">
       <c r="A154" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900049755_0.fasta</t>
+          <t>label_15841_8_88_10.fasta</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.05645525304918363</v>
+        <v>0.0004354652537047476</v>
       </c>
       <c r="C154" t="n">
-        <v>0.9435447469508164</v>
+        <v>0.9995645347462953</v>
       </c>
       <c r="D154" t="n">
-        <v>0.9435447469508164</v>
+        <v>0.9995645347462953</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3883,17 +3841,17 @@
     <row r="155">
       <c r="A155" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900049755_1.fasta</t>
+          <t>label_15841_8_88_2.fasta</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.06025587920188147</v>
+        <v>0.0003401052559530715</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9397441207981185</v>
+        <v>0.9996598947440469</v>
       </c>
       <c r="D155" t="n">
-        <v>0.9397441207981185</v>
+        <v>0.9996598947440469</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3904,17 +3862,17 @@
     <row r="156">
       <c r="A156" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900049755_2.fasta</t>
+          <t>label_15841_8_88_6.fasta</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.08207332739301398</v>
+        <v>0.0003776888530991895</v>
       </c>
       <c r="C156" t="n">
-        <v>0.917926672606986</v>
+        <v>0.9996223111469008</v>
       </c>
       <c r="D156" t="n">
-        <v>0.917926672606986</v>
+        <v>0.9996223111469008</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3925,17 +3883,17 @@
     <row r="157">
       <c r="A157" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900078305_1.fasta</t>
+          <t>label_15841_8_88_9.fasta</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.04026110931228921</v>
+        <v>0.0003788723834643459</v>
       </c>
       <c r="C157" t="n">
-        <v>0.9597388906877108</v>
+        <v>0.9996211276165357</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9597388906877108</v>
+        <v>0.9996211276165357</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3946,17 +3904,17 @@
     <row r="158">
       <c r="A158" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900078305_4.fasta</t>
+          <t>label_GCF_000403725_0.fasta</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.03461949203592063</v>
+        <v>0.001232521579770496</v>
       </c>
       <c r="C158" t="n">
-        <v>0.9653805079640794</v>
+        <v>0.9987674784202295</v>
       </c>
       <c r="D158" t="n">
-        <v>0.9653805079640794</v>
+        <v>0.9987674784202295</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -3967,17 +3925,17 @@
     <row r="159">
       <c r="A159" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900078305_5.fasta</t>
+          <t>label_GCF_000403725_3.fasta</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.02443643308276955</v>
+        <v>0.001332295914665993</v>
       </c>
       <c r="C159" t="n">
-        <v>0.9755635669172305</v>
+        <v>0.998667704085334</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9755635669172305</v>
+        <v>0.998667704085334</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3988,38 +3946,38 @@
     <row r="160">
       <c r="A160" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900078305_8.fasta</t>
+          <t>label_GCF_000403725_4.fasta</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.03062697733639974</v>
+        <v>0.9969122735853092</v>
       </c>
       <c r="C160" t="n">
-        <v>0.9693730226636003</v>
+        <v>0.003087726414690804</v>
       </c>
       <c r="D160" t="n">
-        <v>0.9693730226636003</v>
+        <v>0.9969122735853092</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>f__Mycobacteriaceae</t>
+          <t>f__Geodermatophilaceae</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900092335_1.fasta</t>
+          <t>label_GCF_900078305_10.fasta</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.01205985086422279</v>
+        <v>0.003090923901775678</v>
       </c>
       <c r="C161" t="n">
-        <v>0.9879401491357772</v>
+        <v>0.9969090760982243</v>
       </c>
       <c r="D161" t="n">
-        <v>0.9879401491357772</v>
+        <v>0.9969090760982243</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -4030,17 +3988,17 @@
     <row r="162">
       <c r="A162" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_103.fasta</t>
+          <t>label_GCF_900078305_11.fasta</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.02697721080514726</v>
+        <v>0.004236046464557219</v>
       </c>
       <c r="C162" t="n">
-        <v>0.9730227891948527</v>
+        <v>0.9957639535354428</v>
       </c>
       <c r="D162" t="n">
-        <v>0.9730227891948527</v>
+        <v>0.9957639535354428</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -4051,17 +4009,17 @@
     <row r="163">
       <c r="A163" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_2.fasta</t>
+          <t>label_GCF_900078305_3.fasta</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.007410090970188076</v>
+        <v>0.01181375014401476</v>
       </c>
       <c r="C163" t="n">
-        <v>0.9925899090298119</v>
+        <v>0.9881862498559852</v>
       </c>
       <c r="D163" t="n">
-        <v>0.9925899090298119</v>
+        <v>0.9881862498559852</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -4072,17 +4030,17 @@
     <row r="164">
       <c r="A164" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_22.fasta</t>
+          <t>label_GCF_900078305_7.fasta</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.008133947378437201</v>
+        <v>0.006249750223964567</v>
       </c>
       <c r="C164" t="n">
-        <v>0.9918660526215628</v>
+        <v>0.9937502497760354</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9918660526215628</v>
+        <v>0.9937502497760354</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -4093,17 +4051,17 @@
     <row r="165">
       <c r="A165" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_29.fasta</t>
+          <t>label_GCF_900078305_9.fasta</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.008618278151288239</v>
+        <v>0.003109329513721226</v>
       </c>
       <c r="C165" t="n">
-        <v>0.9913817218487118</v>
+        <v>0.9968906704862788</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9913817218487118</v>
+        <v>0.9968906704862788</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -4114,17 +4072,17 @@
     <row r="166">
       <c r="A166" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_30.fasta</t>
+          <t>label_UMGS194_1.fasta</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.009705161942564211</v>
+        <v>0.0002798803302875852</v>
       </c>
       <c r="C166" t="n">
-        <v>0.9902948380574358</v>
+        <v>0.9997201196697124</v>
       </c>
       <c r="D166" t="n">
-        <v>0.9902948380574358</v>
+        <v>0.9997201196697124</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -4135,17 +4093,17 @@
     <row r="167">
       <c r="A167" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_40.fasta</t>
+          <t>label_UMGS194_101.fasta</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.009309913093050072</v>
+        <v>0.05790728608951201</v>
       </c>
       <c r="C167" t="n">
-        <v>0.9906900869069499</v>
+        <v>0.942092713910488</v>
       </c>
       <c r="D167" t="n">
-        <v>0.9906900869069499</v>
+        <v>0.942092713910488</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -4156,17 +4114,17 @@
     <row r="168">
       <c r="A168" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_42.fasta</t>
+          <t>label_UMGS194_105.fasta</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.01064266513205914</v>
+        <v>0.02268143308368331</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9893573348679409</v>
+        <v>0.9773185669163167</v>
       </c>
       <c r="D168" t="n">
-        <v>0.9893573348679409</v>
+        <v>0.9773185669163167</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -4177,17 +4135,17 @@
     <row r="169">
       <c r="A169" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_43.fasta</t>
+          <t>label_UMGS194_16.fasta</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.01043022691987239</v>
+        <v>0.0004824503120202106</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9895697730801276</v>
+        <v>0.9995175496879798</v>
       </c>
       <c r="D169" t="n">
-        <v>0.9895697730801276</v>
+        <v>0.9995175496879798</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -4198,17 +4156,17 @@
     <row r="170">
       <c r="A170" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_46.fasta</t>
+          <t>label_UMGS194_26.fasta</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.01040386335687871</v>
+        <v>0.0006748249391902439</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9895961366431213</v>
+        <v>0.9993251750608098</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9895961366431213</v>
+        <v>0.9993251750608098</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -4219,17 +4177,17 @@
     <row r="171">
       <c r="A171" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_50.fasta</t>
+          <t>label_UMGS194_39.fasta</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.010536768870824</v>
+        <v>0.0007642855037622853</v>
       </c>
       <c r="C171" t="n">
-        <v>0.989463231129176</v>
+        <v>0.9992357144962377</v>
       </c>
       <c r="D171" t="n">
-        <v>0.989463231129176</v>
+        <v>0.9992357144962377</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -4240,17 +4198,17 @@
     <row r="172">
       <c r="A172" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_51.fasta</t>
+          <t>label_UMGS194_44.fasta</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.01140670091623941</v>
+        <v>0.0007114578913096636</v>
       </c>
       <c r="C172" t="n">
-        <v>0.9885932990837606</v>
+        <v>0.9992885421086903</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9885932990837606</v>
+        <v>0.9992885421086903</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -4261,17 +4219,17 @@
     <row r="173">
       <c r="A173" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_53.fasta</t>
+          <t>label_UMGS194_47.fasta</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.01081483011866924</v>
+        <v>0.0008658087790452961</v>
       </c>
       <c r="C173" t="n">
-        <v>0.9891851698813308</v>
+        <v>0.9991341912209547</v>
       </c>
       <c r="D173" t="n">
-        <v>0.9891851698813308</v>
+        <v>0.9991341912209547</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -4282,17 +4240,17 @@
     <row r="174">
       <c r="A174" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_6.fasta</t>
+          <t>label_UMGS194_49.fasta</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.006831104527828979</v>
+        <v>0.0007650758826177606</v>
       </c>
       <c r="C174" t="n">
-        <v>0.993168895472171</v>
+        <v>0.9992349241173822</v>
       </c>
       <c r="D174" t="n">
-        <v>0.993168895472171</v>
+        <v>0.9992349241173822</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -4303,17 +4261,17 @@
     <row r="175">
       <c r="A175" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_69.fasta</t>
+          <t>label_UMGS194_52.fasta</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.0169263874520672</v>
+        <v>0.0009655756822372075</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9830736125479328</v>
+        <v>0.9990344243177628</v>
       </c>
       <c r="D175" t="n">
-        <v>0.9830736125479328</v>
+        <v>0.9990344243177628</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -4324,17 +4282,17 @@
     <row r="176">
       <c r="A176" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_79.fasta</t>
+          <t>label_UMGS194_63.fasta</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.01437462881558971</v>
+        <v>0.02763365212121283</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9856253711844103</v>
+        <v>0.9723663478787872</v>
       </c>
       <c r="D176" t="n">
-        <v>0.9856253711844103</v>
+        <v>0.9723663478787872</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -4345,17 +4303,17 @@
     <row r="177">
       <c r="A177" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_85.fasta</t>
+          <t>label_UMGS194_72.fasta</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.01810905219057957</v>
+        <v>0.001962132853148724</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9818909478094204</v>
+        <v>0.9980378671468513</v>
       </c>
       <c r="D177" t="n">
-        <v>0.9818909478094204</v>
+        <v>0.9980378671468513</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -4366,17 +4324,17 @@
     <row r="178">
       <c r="A178" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_90.fasta</t>
+          <t>label_UMGS194_8.fasta</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.01840393239959337</v>
+        <v>0.0006039189294484437</v>
       </c>
       <c r="C178" t="n">
-        <v>0.9815960676004066</v>
+        <v>0.9993960810705516</v>
       </c>
       <c r="D178" t="n">
-        <v>0.9815960676004066</v>
+        <v>0.9993960810705516</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -4387,17 +4345,17 @@
     <row r="179">
       <c r="A179" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_94.fasta</t>
+          <t>label_UMGS194_81.fasta</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.03139640300365099</v>
+        <v>0.007445363381382242</v>
       </c>
       <c r="C179" t="n">
-        <v>0.968603596996349</v>
+        <v>0.9925546366186178</v>
       </c>
       <c r="D179" t="n">
-        <v>0.968603596996349</v>
+        <v>0.9925546366186178</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -4408,17 +4366,17 @@
     <row r="180">
       <c r="A180" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_99.fasta</t>
+          <t>label_UMGS194_9.fasta</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.02931219433422072</v>
+        <v>0.0003427891473599676</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9706878056657793</v>
+        <v>0.99965721085264</v>
       </c>
       <c r="D180" t="n">
-        <v>0.9706878056657793</v>
+        <v>0.99965721085264</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -4429,17 +4387,17 @@
     <row r="181">
       <c r="A181" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_14.fasta</t>
+          <t>label_UMGS194_92.fasta</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.006642603981166784</v>
+        <v>0.008749950968827913</v>
       </c>
       <c r="C181" t="n">
-        <v>0.9933573960188332</v>
+        <v>0.9912500490311721</v>
       </c>
       <c r="D181" t="n">
-        <v>0.9933573960188332</v>
+        <v>0.9912500490311721</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -4450,17 +4408,17 @@
     <row r="182">
       <c r="A182" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_17.fasta</t>
+          <t>label_UMGS56_11.fasta</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.006887356560971059</v>
+        <v>0.0002869117018670098</v>
       </c>
       <c r="C182" t="n">
-        <v>0.9931126434390289</v>
+        <v>0.999713088298133</v>
       </c>
       <c r="D182" t="n">
-        <v>0.9931126434390289</v>
+        <v>0.999713088298133</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -4471,17 +4429,17 @@
     <row r="183">
       <c r="A183" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_18.fasta</t>
+          <t>label_UMGS56_12.fasta</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.0069504083897175</v>
+        <v>0.0004446435779065228</v>
       </c>
       <c r="C183" t="n">
-        <v>0.9930495916102825</v>
+        <v>0.9995553564220935</v>
       </c>
       <c r="D183" t="n">
-        <v>0.9930495916102825</v>
+        <v>0.9995553564220935</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -4492,17 +4450,17 @@
     <row r="184">
       <c r="A184" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_2.fasta</t>
+          <t>label_UMGS56_15.fasta</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.005877853297076686</v>
+        <v>0.0003621606681263323</v>
       </c>
       <c r="C184" t="n">
-        <v>0.9941221467029233</v>
+        <v>0.9996378393318737</v>
       </c>
       <c r="D184" t="n">
-        <v>0.9941221467029233</v>
+        <v>0.9996378393318737</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -4513,17 +4471,17 @@
     <row r="185">
       <c r="A185" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_21.fasta</t>
+          <t>label_UMGS56_24.fasta</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.007523091799158999</v>
+        <v>0.0005419536000522696</v>
       </c>
       <c r="C185" t="n">
-        <v>0.992476908200841</v>
+        <v>0.9994580463999477</v>
       </c>
       <c r="D185" t="n">
-        <v>0.992476908200841</v>
+        <v>0.9994580463999477</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -4534,17 +4492,17 @@
     <row r="186">
       <c r="A186" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_22.fasta</t>
+          <t>label_UMGS56_31.fasta</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.007253898400719327</v>
+        <v>0.0004742024532008449</v>
       </c>
       <c r="C186" t="n">
-        <v>0.9927461015992807</v>
+        <v>0.9995257975467992</v>
       </c>
       <c r="D186" t="n">
-        <v>0.9927461015992807</v>
+        <v>0.9995257975467992</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -4555,17 +4513,17 @@
     <row r="187">
       <c r="A187" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_33.fasta</t>
+          <t>label_UMGS56_32.fasta</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.01362774946271472</v>
+        <v>0.0007610662635552101</v>
       </c>
       <c r="C187" t="n">
-        <v>0.9863722505372853</v>
+        <v>0.9992389337364448</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9863722505372853</v>
+        <v>0.9992389337364448</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -4576,17 +4534,17 @@
     <row r="188">
       <c r="A188" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS56_41.fasta</t>
+          <t>label_UMGS56_35.fasta</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.0202118392637386</v>
+        <v>0.0009586395258044389</v>
       </c>
       <c r="C188" t="n">
-        <v>0.9797881607362614</v>
+        <v>0.9990413604741956</v>
       </c>
       <c r="D188" t="n">
-        <v>0.9797881607362614</v>
+        <v>0.9990413604741956</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -4597,17 +4555,17 @@
     <row r="189">
       <c r="A189" s="11" t="inlineStr">
         <is>
-          <t>label_15841_8_88_0.fasta</t>
+          <t>label_UMGS56_42.fasta</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.0003795632646000913</v>
+        <v>0.005934824994395238</v>
       </c>
       <c r="C189" t="n">
-        <v>0.9996204367353999</v>
+        <v>0.9940651750056048</v>
       </c>
       <c r="D189" t="n">
-        <v>0.9996204367353999</v>
+        <v>0.9940651750056048</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -4618,775 +4576,19 @@
     <row r="190">
       <c r="A190" s="11" t="inlineStr">
         <is>
-          <t>label_15841_8_88_10.fasta</t>
+          <t>label_UMGS56_7.fasta</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.0004354652537047476</v>
+        <v>0.0002900062956638916</v>
       </c>
       <c r="C190" t="n">
-        <v>0.9995645347462953</v>
+        <v>0.9997099937043361</v>
       </c>
       <c r="D190" t="n">
-        <v>0.9995645347462953</v>
+        <v>0.9997099937043361</v>
       </c>
       <c r="E190" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="11" t="inlineStr">
-        <is>
-          <t>label_15841_8_88_2.fasta</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>0.0003401052559530715</v>
-      </c>
-      <c r="C191" t="n">
-        <v>0.9996598947440469</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0.9996598947440469</v>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="11" t="inlineStr">
-        <is>
-          <t>label_15841_8_88_6.fasta</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>0.0003776888530991895</v>
-      </c>
-      <c r="C192" t="n">
-        <v>0.9996223111469008</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0.9996223111469008</v>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="11" t="inlineStr">
-        <is>
-          <t>label_15841_8_88_9.fasta</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>0.0003788723834643459</v>
-      </c>
-      <c r="C193" t="n">
-        <v>0.9996211276165357</v>
-      </c>
-      <c r="D193" t="n">
-        <v>0.9996211276165357</v>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000403725_0.fasta</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>0.001232521579770496</v>
-      </c>
-      <c r="C194" t="n">
-        <v>0.9987674784202295</v>
-      </c>
-      <c r="D194" t="n">
-        <v>0.9987674784202295</v>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000403725_3.fasta</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>0.001332295914665993</v>
-      </c>
-      <c r="C195" t="n">
-        <v>0.998667704085334</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0.998667704085334</v>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000403725_4.fasta</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>0.9969122735853092</v>
-      </c>
-      <c r="C196" t="n">
-        <v>0.003087726414690804</v>
-      </c>
-      <c r="D196" t="n">
-        <v>0.9969122735853092</v>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>f__Geodermatophilaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_900078305_10.fasta</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>0.003090923901775678</v>
-      </c>
-      <c r="C197" t="n">
-        <v>0.9969090760982243</v>
-      </c>
-      <c r="D197" t="n">
-        <v>0.9969090760982243</v>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_900078305_11.fasta</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>0.004236046464557219</v>
-      </c>
-      <c r="C198" t="n">
-        <v>0.9957639535354428</v>
-      </c>
-      <c r="D198" t="n">
-        <v>0.9957639535354428</v>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_900078305_3.fasta</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>0.01181375014401476</v>
-      </c>
-      <c r="C199" t="n">
-        <v>0.9881862498559852</v>
-      </c>
-      <c r="D199" t="n">
-        <v>0.9881862498559852</v>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_900078305_7.fasta</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>0.006249750223964567</v>
-      </c>
-      <c r="C200" t="n">
-        <v>0.9937502497760354</v>
-      </c>
-      <c r="D200" t="n">
-        <v>0.9937502497760354</v>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_900078305_9.fasta</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>0.003109329513721226</v>
-      </c>
-      <c r="C201" t="n">
-        <v>0.9968906704862788</v>
-      </c>
-      <c r="D201" t="n">
-        <v>0.9968906704862788</v>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_1.fasta</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>0.0002798803302875852</v>
-      </c>
-      <c r="C202" t="n">
-        <v>0.9997201196697124</v>
-      </c>
-      <c r="D202" t="n">
-        <v>0.9997201196697124</v>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_101.fasta</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>0.05790728608951201</v>
-      </c>
-      <c r="C203" t="n">
-        <v>0.942092713910488</v>
-      </c>
-      <c r="D203" t="n">
-        <v>0.942092713910488</v>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_105.fasta</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>0.02268143308368331</v>
-      </c>
-      <c r="C204" t="n">
-        <v>0.9773185669163167</v>
-      </c>
-      <c r="D204" t="n">
-        <v>0.9773185669163167</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_16.fasta</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>0.0004824503120202106</v>
-      </c>
-      <c r="C205" t="n">
-        <v>0.9995175496879798</v>
-      </c>
-      <c r="D205" t="n">
-        <v>0.9995175496879798</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_26.fasta</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>0.0006748249391902439</v>
-      </c>
-      <c r="C206" t="n">
-        <v>0.9993251750608098</v>
-      </c>
-      <c r="D206" t="n">
-        <v>0.9993251750608098</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_39.fasta</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
-        <v>0.0007642855037622853</v>
-      </c>
-      <c r="C207" t="n">
-        <v>0.9992357144962377</v>
-      </c>
-      <c r="D207" t="n">
-        <v>0.9992357144962377</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_44.fasta</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>0.0007114578913096636</v>
-      </c>
-      <c r="C208" t="n">
-        <v>0.9992885421086903</v>
-      </c>
-      <c r="D208" t="n">
-        <v>0.9992885421086903</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_47.fasta</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>0.0008658087790452961</v>
-      </c>
-      <c r="C209" t="n">
-        <v>0.9991341912209547</v>
-      </c>
-      <c r="D209" t="n">
-        <v>0.9991341912209547</v>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_49.fasta</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>0.0007650758826177606</v>
-      </c>
-      <c r="C210" t="n">
-        <v>0.9992349241173822</v>
-      </c>
-      <c r="D210" t="n">
-        <v>0.9992349241173822</v>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_52.fasta</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>0.0009655756822372075</v>
-      </c>
-      <c r="C211" t="n">
-        <v>0.9990344243177628</v>
-      </c>
-      <c r="D211" t="n">
-        <v>0.9990344243177628</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_63.fasta</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>0.02763365212121283</v>
-      </c>
-      <c r="C212" t="n">
-        <v>0.9723663478787872</v>
-      </c>
-      <c r="D212" t="n">
-        <v>0.9723663478787872</v>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_72.fasta</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>0.001962132853148724</v>
-      </c>
-      <c r="C213" t="n">
-        <v>0.9980378671468513</v>
-      </c>
-      <c r="D213" t="n">
-        <v>0.9980378671468513</v>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_8.fasta</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>0.0006039189294484437</v>
-      </c>
-      <c r="C214" t="n">
-        <v>0.9993960810705516</v>
-      </c>
-      <c r="D214" t="n">
-        <v>0.9993960810705516</v>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_81.fasta</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>0.007445363381382242</v>
-      </c>
-      <c r="C215" t="n">
-        <v>0.9925546366186178</v>
-      </c>
-      <c r="D215" t="n">
-        <v>0.9925546366186178</v>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_9.fasta</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
-        <v>0.0003427891473599676</v>
-      </c>
-      <c r="C216" t="n">
-        <v>0.99965721085264</v>
-      </c>
-      <c r="D216" t="n">
-        <v>0.99965721085264</v>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS194_92.fasta</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>0.008749950968827913</v>
-      </c>
-      <c r="C217" t="n">
-        <v>0.9912500490311721</v>
-      </c>
-      <c r="D217" t="n">
-        <v>0.9912500490311721</v>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS56_11.fasta</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
-        <v>0.0002869117018670098</v>
-      </c>
-      <c r="C218" t="n">
-        <v>0.999713088298133</v>
-      </c>
-      <c r="D218" t="n">
-        <v>0.999713088298133</v>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS56_12.fasta</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
-        <v>0.0004446435779065228</v>
-      </c>
-      <c r="C219" t="n">
-        <v>0.9995553564220935</v>
-      </c>
-      <c r="D219" t="n">
-        <v>0.9995553564220935</v>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS56_15.fasta</t>
-        </is>
-      </c>
-      <c r="B220" t="n">
-        <v>0.0003621606681263323</v>
-      </c>
-      <c r="C220" t="n">
-        <v>0.9996378393318737</v>
-      </c>
-      <c r="D220" t="n">
-        <v>0.9996378393318737</v>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS56_24.fasta</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
-        <v>0.0005419536000522696</v>
-      </c>
-      <c r="C221" t="n">
-        <v>0.9994580463999477</v>
-      </c>
-      <c r="D221" t="n">
-        <v>0.9994580463999477</v>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS56_31.fasta</t>
-        </is>
-      </c>
-      <c r="B222" t="n">
-        <v>0.0004742024532008449</v>
-      </c>
-      <c r="C222" t="n">
-        <v>0.9995257975467992</v>
-      </c>
-      <c r="D222" t="n">
-        <v>0.9995257975467992</v>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS56_32.fasta</t>
-        </is>
-      </c>
-      <c r="B223" t="n">
-        <v>0.0007610662635552101</v>
-      </c>
-      <c r="C223" t="n">
-        <v>0.9992389337364448</v>
-      </c>
-      <c r="D223" t="n">
-        <v>0.9992389337364448</v>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS56_35.fasta</t>
-        </is>
-      </c>
-      <c r="B224" t="n">
-        <v>0.0009586395258044389</v>
-      </c>
-      <c r="C224" t="n">
-        <v>0.9990413604741956</v>
-      </c>
-      <c r="D224" t="n">
-        <v>0.9990413604741956</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS56_42.fasta</t>
-        </is>
-      </c>
-      <c r="B225" t="n">
-        <v>0.005934824994395238</v>
-      </c>
-      <c r="C225" t="n">
-        <v>0.9940651750056048</v>
-      </c>
-      <c r="D225" t="n">
-        <v>0.9940651750056048</v>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS56_7.fasta</t>
-        </is>
-      </c>
-      <c r="B226" t="n">
-        <v>0.0002900062956638916</v>
-      </c>
-      <c r="C226" t="n">
-        <v>0.9997099937043361</v>
-      </c>
-      <c r="D226" t="n">
-        <v>0.9997099937043361</v>
-      </c>
-      <c r="E226" t="inlineStr">
         <is>
           <t>f__Mycobacteriaceae</t>
         </is>
